--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1165634.079999584</v>
+        <v>1185419.003752166</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1688887.019951504</v>
+        <v>1409000.697294979</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7011176.162754118</v>
+        <v>7060550.372378136</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9111613.922570536</v>
+        <v>9100925.307603896</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>197.9240804051654</v>
+        <v>156.238666383095</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>156.127162662147</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>339.0399185806814</v>
+        <v>401.3550844723776</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1072,7 +1072,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>48.9140155965814</v>
+        <v>52.10844059186275</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>230.0681405859393</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>26.94389492651069</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>48.9140155965814</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>190.2713935802969</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>111.9273983130128</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>20.88637380904774</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>129.0246247964034</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>352.0426595656933</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664348</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958678</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183531</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.45203527283277</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>169.0167291702127</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>247.4118363136084</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>206.6496618758914</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,7 +1859,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>23.42738223981416</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>165.0140383262328</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>225.3310324281741</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>25.06599159720328</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>84.73964677811928</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>191.4420262610236</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2327,13 +2327,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>105.5638996453406</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,10 +2375,10 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>277.8050612204562</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>55.00596534014761</v>
       </c>
       <c r="F25" t="n">
-        <v>76.31360686560586</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I25" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2555,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>412.9169039459368</v>
+        <v>264.8835242011461</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>162.7192347577363</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>18.58007567966357</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>150.2886193881528</v>
       </c>
       <c r="U28" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
-        <v>277.805061220456</v>
+        <v>179.7188787253433</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,13 +2846,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>79.13107494872352</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>165.0140383262327</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>53.30003347744971</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>154.6528871281403</v>
+        <v>128.8291333340138</v>
       </c>
       <c r="T32" t="n">
         <v>212.651863114966</v>
@@ -3086,7 +3086,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>130.9234281257274</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3241,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>165.0140383262327</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.651863114966</v>
+        <v>41.73998929221516</v>
       </c>
       <c r="U35" t="n">
-        <v>161.6550971996502</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3424,22 +3424,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.01172374560248</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>49.22623797673722</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S37" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U37" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>313.4459964450242</v>
       </c>
       <c r="G38" t="n">
         <v>412.9169039459368</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,16 +3554,16 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T38" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>161.6550971996502</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>78.83302298974493</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>143.2940831881937</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,16 +3743,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>26.94389492651113</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228957</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,22 +3901,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>141.1730271014113</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>115.2831592672293</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
         <v>286.260654658097</v>
@@ -3958,13 +3958,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>323.9918595228957</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>165.0140383262328</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>152.3898491144596</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2047.384933294377</v>
+        <v>2539.332256287823</v>
       </c>
       <c r="V2" t="n">
-        <v>1716.322045950807</v>
+        <v>2539.332256287823</v>
       </c>
       <c r="W2" t="n">
-        <v>1363.553390680693</v>
+        <v>2186.563601017709</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.553390680693</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4507,16 +4507,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
         <v>53.94298182036445</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1920.409918978289</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C5" t="n">
-        <v>1551.447402037877</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D5" t="n">
-        <v>1193.181703431127</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E5" t="n">
-        <v>807.3934508328825</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F5" t="n">
-        <v>396.407546043275</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4610,7 +4610,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>2307.009759042411</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4659,34 +4659,34 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117053</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F7" t="n">
-        <v>430.0992512117053</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G7" t="n">
-        <v>261.0994509500377</v>
+        <v>264.3261428644633</v>
       </c>
       <c r="H7" t="n">
-        <v>103.3510783825679</v>
+        <v>106.5777702969935</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.94416071721</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776798</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.981643776798</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E8" t="n">
-        <v>1177.981643776798</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F8" t="n">
-        <v>766.9957389871904</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>261.0994509500377</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>103.3510783825679</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1584.923258067584</v>
+        <v>995.9506728057374</v>
       </c>
       <c r="C11" t="n">
-        <v>1215.960741127172</v>
+        <v>995.9506728057374</v>
       </c>
       <c r="D11" t="n">
-        <v>857.6950425204218</v>
+        <v>995.9506728057374</v>
       </c>
       <c r="E11" t="n">
-        <v>471.9067899221776</v>
+        <v>995.9506728057374</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>584.9647680161299</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>167.0009599143168</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5060,31 +5060,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2676.051743736356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2676.051743736356</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.988856392786</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.988856392786</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X11" t="n">
-        <v>1971.523098131706</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y11" t="n">
-        <v>1971.523098131706</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5115,7 +5115,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5130,31 +5130,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,58 +5173,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
         <v>597.8010803716834</v>
@@ -5233,16 +5233,16 @@
         <v>308.6274700262513</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1933.544000781331</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C14" t="n">
-        <v>1564.58148384092</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D14" t="n">
-        <v>1206.315785234169</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E14" t="n">
-        <v>820.5275326359249</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F14" t="n">
-        <v>409.5416278463173</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036446</v>
@@ -5276,25 +5276,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>75.17723181374723</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>157.7403863883387</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L14" t="n">
-        <v>297.069042229591</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
-        <v>928.7868532129016</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1556.094521272747</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>2103.255726039823</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P14" t="n">
-        <v>2532.570772379117</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
         <v>2697.149091018223</v>
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>967.3646662469704</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>792.9116369658434</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>643.9772273045921</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>484.7397722991366</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>338.2052143260216</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>200.7638166852435</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H15" t="n">
-        <v>99.84783883004809</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036446</v>
@@ -5358,49 +5358,49 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K15" t="n">
-        <v>383.3713861261738</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>887.7329259922916</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M15" t="n">
-        <v>1067.230262346896</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1640.14732082586</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2189.583329578582</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2613.551098059418</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2636.288039261395</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2615.176139663581</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2465.709350526216</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2268.720054686304</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>2040.581267197469</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1805.429158965727</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1551.191802237525</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1343.340302031992</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1135.580003267038</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>284.4118019638648</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C16" t="n">
-        <v>284.4118019638648</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D16" t="n">
-        <v>284.4118019638648</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E16" t="n">
-        <v>284.4118019638648</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F16" t="n">
-        <v>284.4118019638648</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G16" t="n">
-        <v>284.4118019638648</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H16" t="n">
-        <v>130.1571588636299</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036446</v>
@@ -5437,49 +5437,49 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
-        <v>154.990911415974</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>339.8239063167919</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>545.0935070360295</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N16" t="n">
-        <v>750.9168718721334</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>925.0117672607319</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>1050.459343859347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q16" t="n">
-        <v>1053.877663279707</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R16" t="n">
-        <v>1053.877663279707</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S16" t="n">
-        <v>1053.877663279707</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T16" t="n">
-        <v>828.2484665920718</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U16" t="n">
-        <v>539.0962901697517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V16" t="n">
-        <v>284.4118019638648</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W16" t="n">
-        <v>284.4118019638648</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X16" t="n">
-        <v>284.4118019638648</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y16" t="n">
-        <v>284.4118019638648</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1865.553283416327</v>
+        <v>2333.305065052698</v>
       </c>
       <c r="C17" t="n">
-        <v>1496.590766475915</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.853734278045</v>
+        <v>1606.076849505535</v>
       </c>
       <c r="E17" t="n">
-        <v>902.0654816798005</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F17" t="n">
-        <v>491.079576890193</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="G17" t="n">
-        <v>73.9917951266205</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H17" t="n">
         <v>73.9917951266205</v>
@@ -5513,10 +5513,10 @@
         <v>73.9917951266205</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403563</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K17" t="n">
-        <v>666.098807160401</v>
+        <v>666.0988071604006</v>
       </c>
       <c r="L17" t="n">
         <v>1218.912065406599</v>
@@ -5549,16 +5549,16 @@
         <v>3699.589756331025</v>
       </c>
       <c r="V17" t="n">
-        <v>3368.526868987454</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="W17" t="n">
-        <v>3015.75821371734</v>
+        <v>3346.821101060911</v>
       </c>
       <c r="X17" t="n">
-        <v>2642.29245545626</v>
+        <v>2973.355342799831</v>
       </c>
       <c r="Y17" t="n">
-        <v>2252.153123480448</v>
+        <v>2583.216010824019</v>
       </c>
     </row>
     <row r="18">
@@ -5598,13 +5598,13 @@
         <v>403.4201994324298</v>
       </c>
       <c r="L18" t="n">
-        <v>907.7817392985476</v>
+        <v>820.994043012348</v>
       </c>
       <c r="M18" t="n">
-        <v>1548.327088765651</v>
+        <v>1461.539392479452</v>
       </c>
       <c r="N18" t="n">
-        <v>1746.983830418315</v>
+        <v>1660.196134132116</v>
       </c>
       <c r="O18" t="n">
         <v>2209.632142884838</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2699.655074871683</v>
+        <v>395.6855505858081</v>
       </c>
       <c r="C19" t="n">
-        <v>2699.655074871683</v>
+        <v>372.0215281213493</v>
       </c>
       <c r="D19" t="n">
-        <v>2699.655074871683</v>
+        <v>221.9048887090136</v>
       </c>
       <c r="E19" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F19" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G19" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H19" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I19" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J19" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K19" t="n">
-        <v>2800.703004467292</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L19" t="n">
-        <v>2985.53599936811</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M19" t="n">
-        <v>3190.805600087348</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N19" t="n">
-        <v>3396.628964923451</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O19" t="n">
-        <v>3570.72386031205</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P19" t="n">
-        <v>3696.171436910665</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q19" t="n">
-        <v>3699.589756331025</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R19" t="n">
-        <v>3699.589756331025</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S19" t="n">
-        <v>3699.589756331025</v>
+        <v>866.4861918383681</v>
       </c>
       <c r="T19" t="n">
-        <v>3699.589756331025</v>
+        <v>866.4861918383681</v>
       </c>
       <c r="U19" t="n">
-        <v>3410.437579908705</v>
+        <v>577.3340154160478</v>
       </c>
       <c r="V19" t="n">
-        <v>3155.753091702818</v>
+        <v>577.3340154160478</v>
       </c>
       <c r="W19" t="n">
-        <v>2866.335921665857</v>
+        <v>577.3340154160478</v>
       </c>
       <c r="X19" t="n">
-        <v>2699.655074871683</v>
+        <v>577.3340154160478</v>
       </c>
       <c r="Y19" t="n">
-        <v>2699.655074871683</v>
+        <v>577.3340154160478</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1597.994168061634</v>
+        <v>2015.081949825207</v>
       </c>
       <c r="C20" t="n">
-        <v>1229.031651121223</v>
+        <v>1646.119432884795</v>
       </c>
       <c r="D20" t="n">
-        <v>870.7659525144722</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E20" t="n">
-        <v>484.9776999162281</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F20" t="n">
-        <v>73.9917951266205</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G20" t="n">
         <v>73.9917951266205</v>
@@ -5750,22 +5750,22 @@
         <v>73.9917951266205</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403561</v>
+        <v>262.6316941403562</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604006</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L20" t="n">
         <v>1218.912065406599</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.629876389909</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N20" t="n">
         <v>2477.937544449755</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216831</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P20" t="n">
         <v>3454.413795556125</v>
@@ -5780,22 +5780,22 @@
         <v>3543.374718827853</v>
       </c>
       <c r="T20" t="n">
-        <v>3328.574857095564</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U20" t="n">
-        <v>3100.967753632762</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="V20" t="n">
-        <v>3100.967753632762</v>
+        <v>3518.055535396335</v>
       </c>
       <c r="W20" t="n">
-        <v>2748.199098362647</v>
+        <v>3165.28688012622</v>
       </c>
       <c r="X20" t="n">
-        <v>2374.733340101568</v>
+        <v>2791.82112186514</v>
       </c>
       <c r="Y20" t="n">
-        <v>1984.594008125756</v>
+        <v>2401.681789889329</v>
       </c>
     </row>
     <row r="21">
@@ -5832,16 +5832,16 @@
         <v>73.9917951266205</v>
       </c>
       <c r="K21" t="n">
-        <v>316.6325031462302</v>
+        <v>232.0072486300744</v>
       </c>
       <c r="L21" t="n">
-        <v>820.994043012348</v>
+        <v>736.3687884961922</v>
       </c>
       <c r="M21" t="n">
-        <v>1461.539392479452</v>
+        <v>1376.914137963296</v>
       </c>
       <c r="N21" t="n">
-        <v>1660.196134132116</v>
+        <v>2050.119830216078</v>
       </c>
       <c r="O21" t="n">
         <v>2209.632142884838</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.9917951266205</v>
+        <v>988.3308737797817</v>
       </c>
       <c r="C22" t="n">
-        <v>73.9917951266205</v>
+        <v>819.3946908518748</v>
       </c>
       <c r="D22" t="n">
-        <v>73.9917951266205</v>
+        <v>669.278051439539</v>
       </c>
       <c r="E22" t="n">
-        <v>73.9917951266205</v>
+        <v>521.3649578571459</v>
       </c>
       <c r="F22" t="n">
-        <v>73.9917951266205</v>
+        <v>521.3649578571459</v>
       </c>
       <c r="G22" t="n">
-        <v>73.9917951266205</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="H22" t="n">
-        <v>73.9917951266205</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="I22" t="n">
         <v>73.9917951266205</v>
@@ -5941,19 +5941,19 @@
         <v>1073.926476585963</v>
       </c>
       <c r="U22" t="n">
-        <v>784.7743001636425</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V22" t="n">
-        <v>591.3985160615985</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W22" t="n">
-        <v>301.9813460246378</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="X22" t="n">
-        <v>73.9917951266205</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.9917951266205</v>
+        <v>1073.926476585963</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2015.081949825207</v>
+        <v>1505.231378499517</v>
       </c>
       <c r="C23" t="n">
-        <v>1646.119432884795</v>
+        <v>1136.268861559106</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.853734278045</v>
+        <v>778.0031629523553</v>
       </c>
       <c r="E23" t="n">
-        <v>902.0654816798005</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="F23" t="n">
-        <v>491.079576890193</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="G23" t="n">
-        <v>73.9917951266205</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H23" t="n">
         <v>73.9917951266205</v>
@@ -5987,22 +5987,22 @@
         <v>73.9917951266205</v>
       </c>
       <c r="J23" t="n">
-        <v>262.6316941403563</v>
+        <v>262.6316941403562</v>
       </c>
       <c r="K23" t="n">
-        <v>666.0988071604011</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L23" t="n">
         <v>1218.912065406599</v>
       </c>
       <c r="M23" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389909</v>
       </c>
       <c r="N23" t="n">
         <v>2477.937544449755</v>
       </c>
       <c r="O23" t="n">
-        <v>3025.098749216832</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P23" t="n">
         <v>3454.413795556125</v>
@@ -6014,25 +6014,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S23" t="n">
-        <v>3699.589756331025</v>
+        <v>3592.959554669065</v>
       </c>
       <c r="T23" t="n">
-        <v>3699.589756331025</v>
+        <v>3592.959554669065</v>
       </c>
       <c r="U23" t="n">
-        <v>3445.898053076176</v>
+        <v>3339.267851414216</v>
       </c>
       <c r="V23" t="n">
-        <v>3445.898053076176</v>
+        <v>3008.204964070645</v>
       </c>
       <c r="W23" t="n">
-        <v>3165.28688012622</v>
+        <v>2655.436308800531</v>
       </c>
       <c r="X23" t="n">
-        <v>2791.82112186514</v>
+        <v>2281.970550539451</v>
       </c>
       <c r="Y23" t="n">
-        <v>2401.681789889329</v>
+        <v>1891.831218563639</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2030.666383316601</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C24" t="n">
-        <v>1856.213354035474</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D24" t="n">
-        <v>1707.278944374222</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E24" t="n">
-        <v>1548.041489368767</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F24" t="n">
-        <v>1401.506931395652</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G24" t="n">
-        <v>1264.065533754874</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H24" t="n">
-        <v>1163.149555899678</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I24" t="n">
-        <v>1117.244698889995</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J24" t="n">
-        <v>1117.244698889995</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K24" t="n">
-        <v>1446.673103195804</v>
+        <v>303.1315656586122</v>
       </c>
       <c r="L24" t="n">
-        <v>1951.034643061922</v>
+        <v>807.49310552473</v>
       </c>
       <c r="M24" t="n">
-        <v>2591.579992529025</v>
+        <v>986.990441879334</v>
       </c>
       <c r="N24" t="n">
-        <v>2790.236734181689</v>
+        <v>1660.196134132116</v>
       </c>
       <c r="O24" t="n">
-        <v>3252.885046648212</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P24" t="n">
-        <v>3676.852815129048</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q24" t="n">
-        <v>3699.589756331025</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R24" t="n">
-        <v>3678.477856733211</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S24" t="n">
-        <v>3529.011067595846</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T24" t="n">
-        <v>3332.021771755934</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U24" t="n">
-        <v>3103.8829842671</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V24" t="n">
-        <v>2868.730876035357</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W24" t="n">
-        <v>2614.493519307156</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X24" t="n">
-        <v>2406.642019101623</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y24" t="n">
-        <v>2198.881720336669</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>598.4494092365458</v>
+        <v>602.8608417187623</v>
       </c>
       <c r="C25" t="n">
-        <v>598.4494092365458</v>
+        <v>433.9246587908555</v>
       </c>
       <c r="D25" t="n">
-        <v>598.4494092365458</v>
+        <v>283.8080193785197</v>
       </c>
       <c r="E25" t="n">
-        <v>598.4494092365458</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="F25" t="n">
-        <v>521.3649578571459</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="G25" t="n">
-        <v>352.7581128525293</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="H25" t="n">
-        <v>198.5034697522943</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I25" t="n">
         <v>73.9917951266205</v>
@@ -6181,16 +6181,16 @@
         <v>1073.926476585963</v>
       </c>
       <c r="V25" t="n">
-        <v>819.2419883800759</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W25" t="n">
-        <v>819.2419883800759</v>
+        <v>784.5093065490021</v>
       </c>
       <c r="X25" t="n">
-        <v>819.2419883800759</v>
+        <v>784.5093065490021</v>
       </c>
       <c r="Y25" t="n">
-        <v>598.4494092365458</v>
+        <v>784.5093065490021</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1407.546704877934</v>
+        <v>1865.553283416328</v>
       </c>
       <c r="C26" t="n">
-        <v>1407.546704877934</v>
+        <v>1496.590766475916</v>
       </c>
       <c r="D26" t="n">
-        <v>1407.546704877934</v>
+        <v>1138.325067869165</v>
       </c>
       <c r="E26" t="n">
-        <v>1021.75845227969</v>
+        <v>752.5368152709211</v>
       </c>
       <c r="F26" t="n">
-        <v>610.7725474900825</v>
+        <v>341.5509104813136</v>
       </c>
       <c r="G26" t="n">
-        <v>193.68476572651</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H26" t="n">
-        <v>193.68476572651</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I26" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J26" t="n">
         <v>262.6316941403563</v>
@@ -6236,40 +6236,40 @@
         <v>1850.62987638991</v>
       </c>
       <c r="N26" t="n">
-        <v>2477.937544449755</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O26" t="n">
         <v>3025.098749216832</v>
       </c>
       <c r="P26" t="n">
-        <v>3454.413795556125</v>
+        <v>3454.413795556126</v>
       </c>
       <c r="Q26" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="R26" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="S26" t="n">
-        <v>3543.374718827853</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="T26" t="n">
-        <v>3328.574857095564</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="U26" t="n">
-        <v>3074.883153840715</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="V26" t="n">
-        <v>2910.520290449062</v>
+        <v>3368.526868987455</v>
       </c>
       <c r="W26" t="n">
-        <v>2557.751635178948</v>
+        <v>3015.758213717341</v>
       </c>
       <c r="X26" t="n">
-        <v>2184.285876917868</v>
+        <v>2642.292455456261</v>
       </c>
       <c r="Y26" t="n">
-        <v>1794.146544942056</v>
+        <v>2252.153123480449</v>
       </c>
     </row>
     <row r="27">
@@ -6291,7 +6291,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G27" t="n">
         <v>220.8126299914996</v>
@@ -6300,10 +6300,10 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I27" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J27" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K27" t="n">
         <v>403.4201994324298</v>
@@ -6312,10 +6312,10 @@
         <v>907.7817392985476</v>
       </c>
       <c r="M27" t="n">
-        <v>1548.327088765651</v>
+        <v>1461.539392479452</v>
       </c>
       <c r="N27" t="n">
-        <v>2050.119830216078</v>
+        <v>1660.196134132116</v>
       </c>
       <c r="O27" t="n">
         <v>2209.632142884838</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>240.672641920795</v>
+        <v>2699.655074871684</v>
       </c>
       <c r="C28" t="n">
-        <v>240.672641920795</v>
+        <v>2699.655074871684</v>
       </c>
       <c r="D28" t="n">
-        <v>221.9048887090136</v>
+        <v>2699.655074871684</v>
       </c>
       <c r="E28" t="n">
-        <v>73.9917951266205</v>
+        <v>2699.655074871684</v>
       </c>
       <c r="F28" t="n">
-        <v>73.9917951266205</v>
+        <v>2699.655074871684</v>
       </c>
       <c r="G28" t="n">
-        <v>73.9917951266205</v>
+        <v>2699.655074871684</v>
       </c>
       <c r="H28" t="n">
-        <v>73.9917951266205</v>
+        <v>2699.655074871684</v>
       </c>
       <c r="I28" t="n">
-        <v>73.9917951266205</v>
+        <v>2699.655074871684</v>
       </c>
       <c r="J28" t="n">
-        <v>73.9917951266205</v>
+        <v>2699.655074871684</v>
       </c>
       <c r="K28" t="n">
-        <v>175.03972472223</v>
+        <v>2800.703004467293</v>
       </c>
       <c r="L28" t="n">
-        <v>359.8727196230479</v>
+        <v>2985.535999368111</v>
       </c>
       <c r="M28" t="n">
-        <v>565.1423203422854</v>
+        <v>3190.805600087348</v>
       </c>
       <c r="N28" t="n">
-        <v>770.9656851783893</v>
+        <v>3396.628964923452</v>
       </c>
       <c r="O28" t="n">
-        <v>945.0605805669878</v>
+        <v>3570.723860312051</v>
       </c>
       <c r="P28" t="n">
-        <v>1070.508157165603</v>
+        <v>3696.171436910666</v>
       </c>
       <c r="Q28" t="n">
-        <v>1073.926476585963</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="R28" t="n">
-        <v>1073.926476585963</v>
+        <v>3569.111795050429</v>
       </c>
       <c r="S28" t="n">
-        <v>1073.926476585963</v>
+        <v>3361.671510302834</v>
       </c>
       <c r="T28" t="n">
-        <v>1073.926476585963</v>
+        <v>3209.864824052174</v>
       </c>
       <c r="U28" t="n">
-        <v>784.7743001636425</v>
+        <v>3209.864824052174</v>
       </c>
       <c r="V28" t="n">
-        <v>530.0898119577556</v>
+        <v>3209.864824052174</v>
       </c>
       <c r="W28" t="n">
-        <v>240.672641920795</v>
+        <v>2920.447654015214</v>
       </c>
       <c r="X28" t="n">
-        <v>240.672641920795</v>
+        <v>2920.447654015214</v>
       </c>
       <c r="Y28" t="n">
-        <v>240.672641920795</v>
+        <v>2699.655074871684</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2295.693122775162</v>
+        <v>2196.616170759897</v>
       </c>
       <c r="C29" t="n">
-        <v>1926.730605834751</v>
+        <v>1827.653653819485</v>
       </c>
       <c r="D29" t="n">
-        <v>1568.464907228</v>
+        <v>1469.387955212735</v>
       </c>
       <c r="E29" t="n">
-        <v>1182.676654629756</v>
+        <v>1083.599702614491</v>
       </c>
       <c r="F29" t="n">
-        <v>771.6907498401486</v>
+        <v>672.6137978248832</v>
       </c>
       <c r="G29" t="n">
-        <v>354.602968076576</v>
+        <v>255.5260160613107</v>
       </c>
       <c r="H29" t="n">
         <v>73.9917951266205</v>
@@ -6461,7 +6461,7 @@
         <v>73.9917951266205</v>
       </c>
       <c r="J29" t="n">
-        <v>262.6316941403563</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K29" t="n">
         <v>666.098807160401</v>
@@ -6476,7 +6476,7 @@
         <v>2477.937544449755</v>
       </c>
       <c r="O29" t="n">
-        <v>3025.098749216832</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P29" t="n">
         <v>3454.413795556125</v>
@@ -6494,19 +6494,19 @@
         <v>3699.589756331025</v>
       </c>
       <c r="U29" t="n">
-        <v>3445.898053076176</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V29" t="n">
-        <v>3445.898053076176</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="W29" t="n">
-        <v>3445.898053076176</v>
+        <v>3346.821101060911</v>
       </c>
       <c r="X29" t="n">
-        <v>3072.432294815096</v>
+        <v>2973.355342799831</v>
       </c>
       <c r="Y29" t="n">
-        <v>2682.292962839284</v>
+        <v>2583.216010824019</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2030.666383316601</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C30" t="n">
-        <v>1856.213354035474</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D30" t="n">
-        <v>1707.278944374222</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E30" t="n">
-        <v>1548.041489368767</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F30" t="n">
-        <v>1401.506931395652</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G30" t="n">
-        <v>1264.065533754874</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H30" t="n">
-        <v>1163.149555899678</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I30" t="n">
-        <v>1117.244698889995</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J30" t="n">
-        <v>1117.244698889995</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K30" t="n">
-        <v>1446.673103195804</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L30" t="n">
-        <v>1779.621692259567</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M30" t="n">
-        <v>2420.167041726671</v>
+        <v>1461.539392479452</v>
       </c>
       <c r="N30" t="n">
-        <v>3093.372733979452</v>
+        <v>1660.196134132116</v>
       </c>
       <c r="O30" t="n">
-        <v>3252.885046648212</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P30" t="n">
-        <v>3676.852815129048</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q30" t="n">
-        <v>3699.589756331025</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R30" t="n">
-        <v>3678.477856733211</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S30" t="n">
-        <v>3529.011067595846</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T30" t="n">
-        <v>3332.021771755934</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U30" t="n">
-        <v>3103.8829842671</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V30" t="n">
-        <v>2868.730876035357</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W30" t="n">
-        <v>2614.493519307156</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X30" t="n">
-        <v>2406.642019101623</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y30" t="n">
-        <v>2198.881720336669</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.9917951266205</v>
+        <v>301.835267445098</v>
       </c>
       <c r="C31" t="n">
-        <v>73.9917951266205</v>
+        <v>301.835267445098</v>
       </c>
       <c r="D31" t="n">
-        <v>73.9917951266205</v>
+        <v>221.9048887090136</v>
       </c>
       <c r="E31" t="n">
         <v>73.9917951266205</v>
@@ -6652,19 +6652,19 @@
         <v>1073.926476585963</v>
       </c>
       <c r="U31" t="n">
-        <v>784.7743001636425</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V31" t="n">
-        <v>530.0898119577556</v>
+        <v>819.2419883800759</v>
       </c>
       <c r="W31" t="n">
-        <v>240.672641920795</v>
+        <v>529.8248183431153</v>
       </c>
       <c r="X31" t="n">
-        <v>73.9917951266205</v>
+        <v>301.835267445098</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.9917951266205</v>
+        <v>301.835267445098</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1240.846680926016</v>
+        <v>1597.994168061634</v>
       </c>
       <c r="C32" t="n">
-        <v>871.8841639856048</v>
+        <v>1229.031651121223</v>
       </c>
       <c r="D32" t="n">
-        <v>513.6184653788544</v>
+        <v>870.7659525144722</v>
       </c>
       <c r="E32" t="n">
-        <v>127.8302127806101</v>
+        <v>484.9776999162281</v>
       </c>
       <c r="F32" t="n">
         <v>73.9917951266205</v>
@@ -6701,7 +6701,7 @@
         <v>262.6316941403563</v>
       </c>
       <c r="K32" t="n">
-        <v>666.098807160401</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L32" t="n">
         <v>1218.912065406599</v>
@@ -6713,7 +6713,7 @@
         <v>2477.937544449755</v>
       </c>
       <c r="O32" t="n">
-        <v>3025.098749216832</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P32" t="n">
         <v>3454.413795556125</v>
@@ -6725,25 +6725,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S32" t="n">
-        <v>3543.374718827853</v>
+        <v>3569.4593186199</v>
       </c>
       <c r="T32" t="n">
-        <v>3328.574857095564</v>
+        <v>3354.659456887611</v>
       </c>
       <c r="U32" t="n">
-        <v>3074.883153840715</v>
+        <v>3100.967753632762</v>
       </c>
       <c r="V32" t="n">
-        <v>2743.820266497144</v>
+        <v>3100.967753632762</v>
       </c>
       <c r="W32" t="n">
-        <v>2391.05161122703</v>
+        <v>2748.199098362647</v>
       </c>
       <c r="X32" t="n">
-        <v>2017.58585296595</v>
+        <v>2374.733340101568</v>
       </c>
       <c r="Y32" t="n">
-        <v>1627.446520990138</v>
+        <v>1984.594008125756</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2030.666383316601</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C33" t="n">
-        <v>1856.213354035474</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D33" t="n">
-        <v>1707.278944374222</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E33" t="n">
-        <v>1548.041489368767</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F33" t="n">
-        <v>1401.506931395652</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G33" t="n">
-        <v>1264.065533754874</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H33" t="n">
-        <v>1163.149555899678</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I33" t="n">
-        <v>1117.244698889995</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J33" t="n">
-        <v>1117.244698889995</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K33" t="n">
-        <v>1446.673103195804</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L33" t="n">
-        <v>1951.034643061922</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M33" t="n">
-        <v>2591.579992529025</v>
+        <v>1461.539392479452</v>
       </c>
       <c r="N33" t="n">
-        <v>3093.372733979452</v>
+        <v>1660.196134132116</v>
       </c>
       <c r="O33" t="n">
-        <v>3252.885046648212</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P33" t="n">
-        <v>3676.852815129048</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q33" t="n">
-        <v>3699.589756331025</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R33" t="n">
-        <v>3678.477856733211</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S33" t="n">
-        <v>3529.011067595846</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T33" t="n">
-        <v>3332.021771755934</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U33" t="n">
-        <v>3103.8829842671</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V33" t="n">
-        <v>2868.730876035357</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W33" t="n">
-        <v>2614.493519307156</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X33" t="n">
-        <v>2406.642019101623</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y33" t="n">
-        <v>2198.881720336669</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.9917951266205</v>
+        <v>671.4854326121929</v>
       </c>
       <c r="C34" t="n">
-        <v>73.9917951266205</v>
+        <v>671.4854326121929</v>
       </c>
       <c r="D34" t="n">
-        <v>73.9917951266205</v>
+        <v>671.4854326121929</v>
       </c>
       <c r="E34" t="n">
-        <v>73.9917951266205</v>
+        <v>671.4854326121929</v>
       </c>
       <c r="F34" t="n">
-        <v>73.9917951266205</v>
+        <v>539.2395456165086</v>
       </c>
       <c r="G34" t="n">
-        <v>73.9917951266205</v>
+        <v>370.6327006118921</v>
       </c>
       <c r="H34" t="n">
-        <v>73.9917951266205</v>
+        <v>216.3780575116571</v>
       </c>
       <c r="I34" t="n">
-        <v>73.9917951266205</v>
+        <v>91.86638288598331</v>
       </c>
       <c r="J34" t="n">
         <v>73.9917951266205</v>
@@ -6889,19 +6889,19 @@
         <v>1073.926476585963</v>
       </c>
       <c r="U34" t="n">
-        <v>784.7743001636425</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V34" t="n">
-        <v>530.0898119577556</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W34" t="n">
-        <v>240.672641920795</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="X34" t="n">
-        <v>240.672641920795</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="Y34" t="n">
-        <v>73.9917951266205</v>
+        <v>853.1338974424326</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2015.081949825207</v>
+        <v>2333.305065052698</v>
       </c>
       <c r="C35" t="n">
-        <v>1646.119432884795</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.853734278045</v>
+        <v>1606.076849505535</v>
       </c>
       <c r="E35" t="n">
-        <v>902.0654816798005</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F35" t="n">
-        <v>491.079576890193</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="G35" t="n">
-        <v>73.9917951266205</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H35" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I35" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J35" t="n">
-        <v>262.6316941403566</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K35" t="n">
-        <v>666.0988071604011</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L35" t="n">
         <v>1218.912065406599</v>
@@ -6962,25 +6962,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S35" t="n">
-        <v>3543.374718827853</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T35" t="n">
-        <v>3328.574857095564</v>
+        <v>3657.428150985354</v>
       </c>
       <c r="U35" t="n">
-        <v>3165.28688012622</v>
+        <v>3403.736447730505</v>
       </c>
       <c r="V35" t="n">
-        <v>3165.28688012622</v>
+        <v>3072.673560386934</v>
       </c>
       <c r="W35" t="n">
-        <v>3165.28688012622</v>
+        <v>2719.904905116819</v>
       </c>
       <c r="X35" t="n">
-        <v>2791.82112186514</v>
+        <v>2719.904905116819</v>
       </c>
       <c r="Y35" t="n">
-        <v>2401.681789889329</v>
+        <v>2719.904905116819</v>
       </c>
     </row>
     <row r="36">
@@ -7002,7 +7002,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G36" t="n">
         <v>220.8126299914996</v>
@@ -7011,10 +7011,10 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I36" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J36" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K36" t="n">
         <v>403.4201994324298</v>
@@ -7023,7 +7023,7 @@
         <v>907.7817392985476</v>
       </c>
       <c r="M36" t="n">
-        <v>1461.539392479452</v>
+        <v>1087.279075653151</v>
       </c>
       <c r="N36" t="n">
         <v>1660.196134132116</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>123.7152678303955</v>
+        <v>489.829767719713</v>
       </c>
       <c r="C37" t="n">
-        <v>123.7152678303955</v>
+        <v>320.8935847918061</v>
       </c>
       <c r="D37" t="n">
-        <v>123.7152678303955</v>
+        <v>320.8935847918061</v>
       </c>
       <c r="E37" t="n">
-        <v>123.7152678303955</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="F37" t="n">
-        <v>123.7152678303955</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="G37" t="n">
-        <v>123.7152678303955</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H37" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I37" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J37" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K37" t="n">
         <v>175.03972472223</v>
@@ -7117,28 +7117,28 @@
         <v>1073.926476585963</v>
       </c>
       <c r="R37" t="n">
-        <v>1073.926476585963</v>
+        <v>943.4485153053654</v>
       </c>
       <c r="S37" t="n">
-        <v>866.4861918383681</v>
+        <v>943.4485153053654</v>
       </c>
       <c r="T37" t="n">
-        <v>640.856995150733</v>
+        <v>717.8193186177303</v>
       </c>
       <c r="U37" t="n">
-        <v>351.7048187284128</v>
+        <v>717.8193186177303</v>
       </c>
       <c r="V37" t="n">
-        <v>351.7048187284128</v>
+        <v>717.8193186177303</v>
       </c>
       <c r="W37" t="n">
-        <v>351.7048187284128</v>
+        <v>717.8193186177303</v>
       </c>
       <c r="X37" t="n">
-        <v>123.7152678303955</v>
+        <v>489.829767719713</v>
       </c>
       <c r="Y37" t="n">
-        <v>123.7152678303955</v>
+        <v>489.829767719713</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2015.081949825207</v>
+        <v>2040.401133256725</v>
       </c>
       <c r="C38" t="n">
-        <v>1646.119432884795</v>
+        <v>1671.438616316314</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.853734278045</v>
+        <v>1313.172917709563</v>
       </c>
       <c r="E38" t="n">
-        <v>902.0654816798005</v>
+        <v>927.384665111319</v>
       </c>
       <c r="F38" t="n">
-        <v>491.079576890193</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="G38" t="n">
-        <v>73.9917951266205</v>
+        <v>193.68476572651</v>
       </c>
       <c r="H38" t="n">
-        <v>73.9917951266205</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I38" t="n">
         <v>73.9917951266205</v>
       </c>
       <c r="J38" t="n">
-        <v>262.6316941403561</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K38" t="n">
-        <v>666.098807160401</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L38" t="n">
         <v>1218.912065406599</v>
@@ -7187,7 +7187,7 @@
         <v>2477.937544449755</v>
       </c>
       <c r="O38" t="n">
-        <v>3025.098749216831</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P38" t="n">
         <v>3454.413795556125</v>
@@ -7202,22 +7202,22 @@
         <v>3543.374718827853</v>
       </c>
       <c r="T38" t="n">
-        <v>3328.574857095564</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U38" t="n">
-        <v>3165.28688012622</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="V38" t="n">
-        <v>3165.28688012622</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="W38" t="n">
-        <v>3165.28688012622</v>
+        <v>3190.606063557739</v>
       </c>
       <c r="X38" t="n">
-        <v>2791.82112186514</v>
+        <v>2817.140305296659</v>
       </c>
       <c r="Y38" t="n">
-        <v>2401.681789889329</v>
+        <v>2427.000973320847</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2030.666383316601</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C39" t="n">
-        <v>1856.213354035474</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D39" t="n">
-        <v>1707.278944374222</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E39" t="n">
-        <v>1548.041489368767</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F39" t="n">
-        <v>1401.506931395652</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G39" t="n">
-        <v>1264.065533754874</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H39" t="n">
-        <v>1163.149555899678</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I39" t="n">
-        <v>1117.244698889995</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J39" t="n">
-        <v>1117.244698889995</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K39" t="n">
-        <v>1446.673103195804</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L39" t="n">
-        <v>1951.034643061922</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M39" t="n">
-        <v>2591.579992529025</v>
+        <v>1087.279075653151</v>
       </c>
       <c r="N39" t="n">
-        <v>2790.236734181689</v>
+        <v>1660.196134132116</v>
       </c>
       <c r="O39" t="n">
-        <v>3339.672742934411</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P39" t="n">
-        <v>3676.852815129048</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q39" t="n">
-        <v>3699.589756331025</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R39" t="n">
-        <v>3678.477856733211</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S39" t="n">
-        <v>3529.011067595846</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T39" t="n">
-        <v>3332.021771755934</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U39" t="n">
-        <v>3103.8829842671</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V39" t="n">
-        <v>2868.730876035357</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W39" t="n">
-        <v>2614.493519307156</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X39" t="n">
-        <v>2406.642019101623</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y39" t="n">
-        <v>2198.881720336669</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>365.6232407944235</v>
+        <v>863.8191991541079</v>
       </c>
       <c r="C40" t="n">
-        <v>365.6232407944235</v>
+        <v>694.883016226201</v>
       </c>
       <c r="D40" t="n">
-        <v>365.6232407944235</v>
+        <v>544.7663768138652</v>
       </c>
       <c r="E40" t="n">
-        <v>220.8817426245309</v>
+        <v>396.8532832314721</v>
       </c>
       <c r="F40" t="n">
-        <v>73.9917951266205</v>
+        <v>396.8532832314721</v>
       </c>
       <c r="G40" t="n">
-        <v>73.9917951266205</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="H40" t="n">
         <v>73.9917951266205</v>
@@ -7354,28 +7354,28 @@
         <v>1073.926476585963</v>
       </c>
       <c r="R40" t="n">
-        <v>1073.926476585963</v>
+        <v>943.4485153053654</v>
       </c>
       <c r="S40" t="n">
-        <v>1073.926476585963</v>
+        <v>943.4485153053654</v>
       </c>
       <c r="T40" t="n">
-        <v>848.2972798983277</v>
+        <v>943.4485153053654</v>
       </c>
       <c r="U40" t="n">
-        <v>848.2972798983277</v>
+        <v>943.4485153053654</v>
       </c>
       <c r="V40" t="n">
-        <v>593.6127916924409</v>
+        <v>943.4485153053654</v>
       </c>
       <c r="W40" t="n">
-        <v>593.6127916924409</v>
+        <v>943.4485153053654</v>
       </c>
       <c r="X40" t="n">
-        <v>365.6232407944235</v>
+        <v>943.4485153053654</v>
       </c>
       <c r="Y40" t="n">
-        <v>365.6232407944235</v>
+        <v>943.4485153053654</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.94416071721</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776798</v>
+        <v>825.2129885066836</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776798</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785536</v>
+        <v>81.15903730168884</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889461</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036446</v>
@@ -7412,13 +7412,13 @@
         <v>75.17723181374723</v>
       </c>
       <c r="K41" t="n">
-        <v>287.3345850058502</v>
+        <v>306.8234377687686</v>
       </c>
       <c r="L41" t="n">
-        <v>426.6632408471024</v>
+        <v>859.6366960149668</v>
       </c>
       <c r="M41" t="n">
-        <v>1058.381051830413</v>
+        <v>1491.354506998277</v>
       </c>
       <c r="N41" t="n">
         <v>1685.688719890259</v>
@@ -7448,13 +7448,13 @@
         <v>2697.149091018223</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018223</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="42">
@@ -7497,10 +7497,10 @@
         <v>887.7329259922916</v>
       </c>
       <c r="M42" t="n">
-        <v>1528.278275459395</v>
+        <v>1441.490579173196</v>
       </c>
       <c r="N42" t="n">
-        <v>2030.071016909822</v>
+        <v>1640.14732082586</v>
       </c>
       <c r="O42" t="n">
         <v>2189.583329578582</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.308316820426</v>
+        <v>318.3037110262215</v>
       </c>
       <c r="C43" t="n">
-        <v>475.308316820426</v>
+        <v>318.3037110262215</v>
       </c>
       <c r="D43" t="n">
-        <v>332.7092995462732</v>
+        <v>318.3037110262215</v>
       </c>
       <c r="E43" t="n">
-        <v>332.7092995462732</v>
+        <v>170.3906174438284</v>
       </c>
       <c r="F43" t="n">
-        <v>332.7092995462732</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>332.7092995462732</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>178.4546564460383</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036446</v>
@@ -7597,22 +7597,22 @@
         <v>1053.877663279707</v>
       </c>
       <c r="T43" t="n">
-        <v>1053.877663279707</v>
+        <v>828.2484665920718</v>
       </c>
       <c r="U43" t="n">
-        <v>764.7254868573866</v>
+        <v>539.0962901697517</v>
       </c>
       <c r="V43" t="n">
-        <v>764.7254868573866</v>
+        <v>539.0962901697517</v>
       </c>
       <c r="W43" t="n">
-        <v>475.308316820426</v>
+        <v>539.0962901697517</v>
       </c>
       <c r="X43" t="n">
-        <v>475.308316820426</v>
+        <v>539.0962901697517</v>
       </c>
       <c r="Y43" t="n">
-        <v>475.308316820426</v>
+        <v>318.3037110262215</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.94416071721</v>
+        <v>1577.945354755379</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.981643776798</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.981643776798</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1933911785536</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>381.2074863889461</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036446</v>
@@ -7688,10 +7688,10 @@
         <v>2697.149091018223</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="45">
@@ -7734,13 +7734,13 @@
         <v>887.7329259922916</v>
       </c>
       <c r="M45" t="n">
-        <v>1528.278275459395</v>
+        <v>1441.490579173196</v>
       </c>
       <c r="N45" t="n">
-        <v>1726.935017112059</v>
+        <v>1640.14732082586</v>
       </c>
       <c r="O45" t="n">
-        <v>2276.371025864782</v>
+        <v>2189.583329578582</v>
       </c>
       <c r="P45" t="n">
         <v>2613.551098059418</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1697.21440955888</v>
+        <v>497.5074787862809</v>
       </c>
       <c r="C46" t="n">
-        <v>1697.21440955888</v>
+        <v>328.571295858374</v>
       </c>
       <c r="D46" t="n">
-        <v>1697.21440955888</v>
+        <v>178.4546564460383</v>
       </c>
       <c r="E46" t="n">
-        <v>1697.21440955888</v>
+        <v>178.4546564460383</v>
       </c>
       <c r="F46" t="n">
-        <v>1697.21440955888</v>
+        <v>178.4546564460383</v>
       </c>
       <c r="G46" t="n">
-        <v>1697.21440955888</v>
+        <v>178.4546564460383</v>
       </c>
       <c r="H46" t="n">
-        <v>1697.21440955888</v>
+        <v>178.4546564460383</v>
       </c>
       <c r="I46" t="n">
-        <v>1697.21440955888</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>1697.21440955888</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
-        <v>1798.26233915449</v>
+        <v>154.990911415974</v>
       </c>
       <c r="L46" t="n">
-        <v>1983.095334055308</v>
+        <v>339.8239063167919</v>
       </c>
       <c r="M46" t="n">
-        <v>2188.364934774545</v>
+        <v>545.0935070360295</v>
       </c>
       <c r="N46" t="n">
-        <v>2394.188299610649</v>
+        <v>750.9168718721334</v>
       </c>
       <c r="O46" t="n">
-        <v>2568.283194999248</v>
+        <v>925.0117672607319</v>
       </c>
       <c r="P46" t="n">
-        <v>2693.730771597863</v>
+        <v>1050.459343859347</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018223</v>
+        <v>1053.877663279707</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018223</v>
+        <v>1053.877663279707</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018223</v>
+        <v>1053.877663279707</v>
       </c>
       <c r="T46" t="n">
-        <v>2530.468244224048</v>
+        <v>1053.877663279707</v>
       </c>
       <c r="U46" t="n">
-        <v>2241.316067801728</v>
+        <v>1053.877663279707</v>
       </c>
       <c r="V46" t="n">
-        <v>1986.631579595841</v>
+        <v>1053.877663279707</v>
       </c>
       <c r="W46" t="n">
-        <v>1697.21440955888</v>
+        <v>1053.877663279707</v>
       </c>
       <c r="X46" t="n">
-        <v>1697.21440955888</v>
+        <v>899.9485227600508</v>
       </c>
       <c r="Y46" t="n">
-        <v>1697.21440955888</v>
+        <v>679.1559436165206</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>130.9032309267792</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928696</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,10 +9012,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>378.0407240669701</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.66121455045</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>283.1760056204293</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>306.1979795936998</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,7 +9480,7 @@
         <v>6.233205181928696</v>
       </c>
       <c r="K21" t="n">
-        <v>176.8008973295487</v>
+        <v>91.32084226272465</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,10 +9489,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,19 +9717,19 @@
         <v>6.233205181928696</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>163.1635867359952</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>306.1979795937005</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714822</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>378.04072406697</v>
       </c>
       <c r="N27" t="n">
-        <v>306.1979795936998</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10194,16 +10194,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>197.6959505536058</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>378.04072406697</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>378.04072406697</v>
       </c>
       <c r="N33" t="n">
-        <v>306.1979795937002</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10671,10 +10671,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>378.04072406697</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>378.0407240669701</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10908,16 +10908,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>378.0407240669701</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>230.7984289569083</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11060,16 +11060,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>130.9032309267792</v>
+        <v>150.588940788313</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11145,13 +11145,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>378.0407240669701</v>
       </c>
       <c r="N42" t="n">
-        <v>306.1979795937</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11382,7 +11382,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>378.0407240669701</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>230.7984289569074</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>53.30008710312387</v>
+        <v>94.98550112519428</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22747,19 +22747,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>56.01837628787186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22796,10 +22796,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>74.74425144011354</v>
+        <v>12.42908554841739</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22945,13 +22945,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22960,10 +22960,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>86.05160619575682</v>
+        <v>82.85718120047548</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,7 +22987,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23024,22 +23024,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>183.7160294348557</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>296.9788778378464</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23081,7 +23081,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23182,22 +23182,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>86.05160619575682</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -23230,13 +23230,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>96.01048066168084</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>211.9953744513443</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>195.5619465486101</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23437,7 +23437,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>96.01048066168084</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>60.87424438024345</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938906</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>47.81452260658429</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176918</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,22 +23695,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>56.01837628787158</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>135.3220053498722</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>148.0333797447915</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>118.4960408938906</v>
@@ -23789,7 +23789,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>143.8194388588137</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23938,7 +23938,7 @@
         <v>129.1731816677914</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>223.3729047207587</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>60.6956170628043</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>315.0408840752156</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>25.82375379412656</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>302.6862668729316</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>95.09233340381802</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>17.69584188176918</v>
@@ -24181,16 +24181,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>60.69561706280444</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24215,13 +24215,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>118.4960408938906</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>154.6528871281403</v>
+        <v>49.08898748279972</v>
       </c>
       <c r="T23" t="n">
         <v>212.651863114966</v>
@@ -24263,10 +24263,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>71.43590749695682</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>91.42799730642156</v>
       </c>
       <c r="F25" t="n">
-        <v>69.10744115732538</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J25" t="n">
         <v>17.69584188176918</v>
@@ -24421,16 +24421,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,10 +24443,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24455,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>148.0333797447907</v>
       </c>
       <c r="H26" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,16 +24491,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V26" t="n">
-        <v>165.0330237123986</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>130.0353973385488</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>223.3729047207587</v>
+        <v>73.08428533260593</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>37.23582285475965</v>
+        <v>135.3220053498723</v>
       </c>
       <c r="I29" t="n">
         <v>118.4960408938906</v>
@@ -24734,13 +24734,13 @@
         <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>69.48439806948883</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24892,7 +24892,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>60.69561706280442</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24926,7 +24926,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>353.5760122642617</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>412.9169039459368</v>
@@ -24965,7 +24965,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>25.8237537941265</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24974,7 +24974,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25084,19 +25084,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>14.49761989720383</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>17.69584188176918</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25129,19 +25129,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.57061502586205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>118.4960408938906</v>
@@ -25202,25 +25202,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>170.9118738227509</v>
       </c>
       <c r="U35" t="n">
-        <v>89.49968902265047</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25312,22 +25312,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>47.42223890096669</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H37" t="n">
-        <v>103.4858586924954</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I37" t="n">
         <v>123.2665578794171</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25400,7 +25400,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>93.43004929668729</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25409,7 +25409,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,16 +25442,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
-        <v>89.49968902265047</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>100.9989571921924</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>3.139879458375447</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>123.2665578794171</v>
@@ -25594,25 +25594,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>205.3658819001187</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U40" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25631,16 +25631,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>379.9321508152003</v>
       </c>
       <c r="G41" t="n">
-        <v>88.92504442304107</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H41" t="n">
         <v>315.0408840752156</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>7.442445916801091</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>30.13788875570191</v>
       </c>
       <c r="G43" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J43" t="n">
         <v>17.69584188176918</v>
@@ -25837,7 +25837,7 @@
         <v>205.3658819001187</v>
       </c>
       <c r="T43" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>88.92504442304107</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
         <v>315.0408840752156</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26041,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I46" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>17.69584188176918</v>
@@ -26074,22 +26074,22 @@
         <v>205.3658819001187</v>
       </c>
       <c r="T46" t="n">
-        <v>58.35886639452585</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>73.31980627457759</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>729397.9021790256</v>
+        <v>729397.9021790257</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>741902.0698922938</v>
+        <v>729397.9021790257</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>842700.5863150561</v>
+        <v>842700.586315056</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>842700.5863150562</v>
+        <v>842700.586315056</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>842700.5863150562</v>
+        <v>842700.5863150561</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>842700.5863150562</v>
+        <v>842700.5863150561</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>842700.5863150561</v>
+        <v>842700.5863150562</v>
       </c>
     </row>
     <row r="14">
@@ -26317,31 +26317,31 @@
         <v>318067.8710173335</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173334</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="E2" t="n">
         <v>318067.8710173334</v>
       </c>
       <c r="F2" t="n">
-        <v>328930.1971346177</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="G2" t="n">
+        <v>371509.2212626557</v>
+      </c>
+      <c r="H2" t="n">
+        <v>371509.2212626557</v>
+      </c>
+      <c r="I2" t="n">
+        <v>371509.2212626556</v>
+      </c>
+      <c r="J2" t="n">
         <v>371509.2212626559</v>
       </c>
-      <c r="H2" t="n">
-        <v>371509.2212626559</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>371509.2212626557</v>
       </c>
-      <c r="J2" t="n">
-        <v>371509.2212626557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>371509.2212626556</v>
-      </c>
       <c r="L2" t="n">
-        <v>371509.2212626557</v>
+        <v>371509.2212626558</v>
       </c>
       <c r="M2" t="n">
         <v>371509.2212626557</v>
@@ -26350,10 +26350,10 @@
         <v>371509.2212626558</v>
       </c>
       <c r="O2" t="n">
-        <v>328930.1971346176</v>
+        <v>328930.1971346177</v>
       </c>
       <c r="P2" t="n">
-        <v>328930.1971346176</v>
+        <v>328930.1971346177</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>170524.6254696455</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>68688.48743806485</v>
+        <v>236417.6520004547</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="C4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="D4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>26486.66836975824</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="G4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="H4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="I4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="J4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="K4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="L4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="M4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="N4" t="n">
-        <v>35067.62056791537</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="O4" t="n">
-        <v>26486.66836975824</v>
+        <v>24757.22927901078</v>
       </c>
       <c r="P4" t="n">
-        <v>26486.66836975824</v>
+        <v>24757.22927901078</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>53934.44517084677</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="G5" t="n">
         <v>69171.54328360136</v>
@@ -26491,7 +26491,7 @@
         <v>69171.54328360136</v>
       </c>
       <c r="J5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="K5" t="n">
         <v>69171.54328360136</v>
@@ -26500,7 +26500,7 @@
         <v>69171.54328360136</v>
       </c>
       <c r="M5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="N5" t="n">
         <v>69171.54328360136</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393232.1540643296</v>
+        <v>-390703.8329008874</v>
       </c>
       <c r="C6" t="n">
-        <v>196735.7251502149</v>
+        <v>199264.0463136572</v>
       </c>
       <c r="D6" t="n">
-        <v>196735.7251502148</v>
+        <v>199264.0463136572</v>
       </c>
       <c r="E6" t="n">
-        <v>230363.3251502148</v>
+        <v>232891.6463136572</v>
       </c>
       <c r="F6" t="n">
-        <v>77984.45812436714</v>
+        <v>232891.6463136573</v>
       </c>
       <c r="G6" t="n">
-        <v>198581.5699730743</v>
+        <v>33145.4868722135</v>
       </c>
       <c r="H6" t="n">
-        <v>267270.0574111391</v>
+        <v>269563.1388726681</v>
       </c>
       <c r="I6" t="n">
-        <v>267270.057411139</v>
+        <v>269563.138872668</v>
       </c>
       <c r="J6" t="n">
-        <v>90846.83821854599</v>
+        <v>93139.91968007525</v>
       </c>
       <c r="K6" t="n">
-        <v>267270.0574111389</v>
+        <v>269563.1388726681</v>
       </c>
       <c r="L6" t="n">
-        <v>267270.057411139</v>
+        <v>269563.1388726682</v>
       </c>
       <c r="M6" t="n">
-        <v>267270.057411139</v>
+        <v>269563.1388726681</v>
       </c>
       <c r="N6" t="n">
-        <v>267270.0574111391</v>
+        <v>269563.1388726682</v>
       </c>
       <c r="O6" t="n">
-        <v>248509.0835940126</v>
+        <v>250238.5226847602</v>
       </c>
       <c r="P6" t="n">
-        <v>248509.0835940126</v>
+        <v>250238.5226847601</v>
       </c>
     </row>
   </sheetData>
@@ -26738,16 +26738,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380635</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="G3" t="n">
         <v>593.4761003380635</v>
@@ -26793,10 +26793,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545557</v>
@@ -26811,7 +26811,7 @@
         <v>924.8974390827563</v>
       </c>
       <c r="J4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827565</v>
       </c>
       <c r="K4" t="n">
         <v>924.8974390827563</v>
@@ -26820,7 +26820,7 @@
         <v>924.8974390827563</v>
       </c>
       <c r="M4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827564</v>
       </c>
       <c r="N4" t="n">
         <v>924.8974390827563</v>
@@ -26969,10 +26969,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>215.7324361209768</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>215.7324361209767</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31756,19 +31756,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31783,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31932,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198244</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055151</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651536</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937396</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779013</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712521</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074814</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359659</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822508</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426692</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.643184845757</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411493</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810503</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916532</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840363</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985298</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182829</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>120.604421484738</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070423</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512815</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842445</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900644</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947069</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671567</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607453</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080783</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S15" t="n">
-        <v>23.7110498578462</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308303</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888311</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206991</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784122</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490359</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889949</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676922</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441087</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714133</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720917</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104759</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937805</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685356</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522782</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35428,7 +35428,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,16 +35498,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>21.4487373670533</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>83.39712583292072</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>140.7360160012649</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730411</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513591</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233095</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588823</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.2407258980867</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452619</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748665</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M15" t="n">
-        <v>181.3104407622262</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N15" t="n">
-        <v>578.7040994737013</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269919</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927636</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472377</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531409</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493111</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295328</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233373</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>175.853429685453</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369852</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353202</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>407.5425384040855</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517149</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M17" t="n">
         <v>638.0987989730411</v>
@@ -35966,7 +35966,7 @@
         <v>332.7559639452619</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748665</v>
+        <v>421.7917611918366</v>
       </c>
       <c r="M18" t="n">
         <v>647.0155045122261</v>
@@ -35975,7 +35975,7 @@
         <v>200.6633754067311</v>
       </c>
       <c r="O18" t="n">
-        <v>467.3215277439622</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P18" t="n">
         <v>428.2502711927636</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>245.091624262232</v>
+        <v>159.611569195408</v>
       </c>
       <c r="L21" t="n">
         <v>509.4561008748665</v>
@@ -36209,10 +36209,10 @@
         <v>647.0155045122261</v>
       </c>
       <c r="N21" t="n">
-        <v>200.6633754067311</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269919</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P21" t="n">
         <v>428.2502711927636</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>332.7559639452619</v>
+        <v>231.4543136686785</v>
       </c>
       <c r="L24" t="n">
         <v>509.4561008748665</v>
       </c>
       <c r="M24" t="n">
-        <v>647.0155045122261</v>
+        <v>181.3104407622262</v>
       </c>
       <c r="N24" t="n">
-        <v>200.6633754067311</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O24" t="n">
-        <v>467.3215277439629</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P24" t="n">
         <v>428.2502711927636</v>
@@ -36610,7 +36610,7 @@
         <v>552.6880856233095</v>
       </c>
       <c r="P26" t="n">
-        <v>433.6515619588819</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q26" t="n">
         <v>247.6524856312122</v>
@@ -36680,13 +36680,13 @@
         <v>509.4561008748665</v>
       </c>
       <c r="M27" t="n">
-        <v>647.0155045122261</v>
+        <v>559.3511648291963</v>
       </c>
       <c r="N27" t="n">
-        <v>506.8613550004309</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O27" t="n">
-        <v>161.1235481502624</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P27" t="n">
         <v>428.2502711927636</v>
@@ -36914,16 +36914,16 @@
         <v>332.7559639452619</v>
       </c>
       <c r="L30" t="n">
-        <v>336.3117061250131</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M30" t="n">
-        <v>647.0155045122261</v>
+        <v>559.3511648291963</v>
       </c>
       <c r="N30" t="n">
-        <v>680.0057497502846</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O30" t="n">
-        <v>161.1235481502624</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P30" t="n">
         <v>428.2502711927636</v>
@@ -37154,13 +37154,13 @@
         <v>509.4561008748665</v>
       </c>
       <c r="M33" t="n">
-        <v>647.0155045122261</v>
+        <v>559.3511648291963</v>
       </c>
       <c r="N33" t="n">
-        <v>506.8613550004313</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O33" t="n">
-        <v>161.1235481502624</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P33" t="n">
         <v>428.2502711927636</v>
@@ -37391,10 +37391,10 @@
         <v>509.4561008748665</v>
       </c>
       <c r="M36" t="n">
-        <v>559.3511648291963</v>
+        <v>181.3104407622262</v>
       </c>
       <c r="N36" t="n">
-        <v>200.6633754067311</v>
+        <v>578.7040994737013</v>
       </c>
       <c r="O36" t="n">
         <v>554.9858674269919</v>
@@ -37628,16 +37628,16 @@
         <v>509.4561008748665</v>
       </c>
       <c r="M39" t="n">
-        <v>647.0155045122261</v>
+        <v>181.3104407622262</v>
       </c>
       <c r="N39" t="n">
-        <v>200.6633754067311</v>
+        <v>578.7040994737013</v>
       </c>
       <c r="O39" t="n">
         <v>554.9858674269919</v>
       </c>
       <c r="P39" t="n">
-        <v>340.5859315097348</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q39" t="n">
         <v>22.96660727472377</v>
@@ -37780,16 +37780,16 @@
         <v>21.4487373670533</v>
       </c>
       <c r="K41" t="n">
-        <v>214.3003567596999</v>
+        <v>233.9860666212337</v>
       </c>
       <c r="L41" t="n">
-        <v>140.7360160012649</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M41" t="n">
         <v>638.0987989730411</v>
       </c>
       <c r="N41" t="n">
-        <v>633.6441091513591</v>
+        <v>196.297184739375</v>
       </c>
       <c r="O41" t="n">
         <v>552.6880856233095</v>
@@ -37865,13 +37865,13 @@
         <v>509.4561008748665</v>
       </c>
       <c r="M42" t="n">
-        <v>647.0155045122261</v>
+        <v>559.3511648291964</v>
       </c>
       <c r="N42" t="n">
-        <v>506.8613550004311</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O42" t="n">
-        <v>161.1235481502624</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P42" t="n">
         <v>428.2502711927636</v>
@@ -38102,7 +38102,7 @@
         <v>509.4561008748665</v>
       </c>
       <c r="M45" t="n">
-        <v>647.0155045122261</v>
+        <v>559.3511648291964</v>
       </c>
       <c r="N45" t="n">
         <v>200.6633754067311</v>
@@ -38111,7 +38111,7 @@
         <v>554.9858674269919</v>
       </c>
       <c r="P45" t="n">
-        <v>340.5859315097339</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q45" t="n">
         <v>22.96660727472377</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1230991.550695068</v>
+        <v>1248060.423160248</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>2990033.63541173</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11336344.66186955</v>
+        <v>10495671.86531855</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>193.0552439171462</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>105.137467992605</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>234.2559520454602</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>106.7489988643977</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>1.026265367618627</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -949,19 +949,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>14.46389722690856</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>80.36913259236748</v>
+        <v>81.92547811985644</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686268</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>246.7083340210949</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>36.59669811656325</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>100.4879364842346</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>83.27922581974927</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>240.9489836685529</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>29.23219049557833</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>81.32327538429598</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>72.87705416567921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>2.945627628991109</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>57.12470717202091</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>27.55584844405769</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>118.4898845065121</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>6.213149383359066</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1975.417918807696</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1617.152220200946</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1231.363967602702</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>820.3780628130942</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>402.414254711281</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2105.981665882184</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>1732.515907621104</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.515907621104</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="3">
@@ -4391,10 +4391,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4403,25 +4403,25 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1857.168914859137</v>
+        <v>984.6750962183016</v>
       </c>
       <c r="C5" t="n">
-        <v>1857.168914859137</v>
+        <v>984.6750962183016</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>626.4093976115512</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>626.4093976115512</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y5" t="n">
-        <v>1857.168914859137</v>
+        <v>1371.274936282423</v>
       </c>
     </row>
     <row r="6">
@@ -4646,31 +4646,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>546.1098286224644</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C8" t="n">
-        <v>546.1098286224644</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="D8" t="n">
-        <v>546.1098286224644</v>
+        <v>522.4842426204839</v>
       </c>
       <c r="E8" t="n">
-        <v>546.1098286224644</v>
+        <v>136.6959900222396</v>
       </c>
       <c r="F8" t="n">
-        <v>135.1239238328569</v>
+        <v>136.6959900222396</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982761</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.1098286224644</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761948</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359522</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355909</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636248</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>221.1079791745888</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028583</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X13" t="n">
-        <v>441.900558318119</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y13" t="n">
-        <v>221.1079791745888</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.777852827703</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341669</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653859</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.119636122095</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>134.1834531941881</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>820.5263570570729</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>531.1091870201124</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.119636122095</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.119636122095</v>
       </c>
     </row>
     <row r="17">
@@ -5494,40 +5494,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5536,28 +5536,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.777852827703</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>891.4406401619866</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>1528.623401105981</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.413304412211</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1397.413304412211</v>
+        <v>1214.875830352495</v>
       </c>
       <c r="U19" t="n">
-        <v>1108.284665625769</v>
+        <v>1214.875830352495</v>
       </c>
       <c r="V19" t="n">
-        <v>853.6001774198821</v>
+        <v>1214.875830352495</v>
       </c>
       <c r="W19" t="n">
-        <v>564.1830073829216</v>
+        <v>1214.875830352495</v>
       </c>
       <c r="X19" t="n">
-        <v>564.1830073829216</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="Y19" t="n">
-        <v>564.1830073829216</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,16 +5755,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5831,13 +5831,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643586</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>944.5383452488629</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>944.5383452488629</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>655.1211752119023</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>655.1211752119023</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823795</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751409</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636247</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6150,19 +6150,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>990.9189019944725</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="26">
@@ -6205,67 +6205,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636253</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,16 +6402,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
         <v>1158.436939387592</v>
@@ -6426,10 +6426,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6484,16 +6484,16 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465301</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126483</v>
@@ -6548,7 +6548,7 @@
         <v>674.4285624571611</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>542.1367719529251</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405894</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581963</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241958</v>
@@ -6630,7 +6630,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119729</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119729</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V31" t="n">
-        <v>1133.156678913842</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W31" t="n">
-        <v>843.739508876881</v>
+        <v>938.3016445311218</v>
       </c>
       <c r="X31" t="n">
-        <v>615.7499579788637</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="Y31" t="n">
-        <v>542.1367719529251</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,37 +6700,37 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6785,7 +6785,7 @@
         <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
@@ -6858,7 +6858,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688073</v>
@@ -6867,7 +6867,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,22 +6885,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609671</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550802</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>441.9005583181196</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201023</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028584</v>
@@ -6937,7 +6937,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>731.3351829786183</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W37" t="n">
-        <v>955.1031435655738</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X37" t="n">
-        <v>952.1277621221484</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y37" t="n">
-        <v>731.3351829786183</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,16 +7186,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>213.9110074201016</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C40" t="n">
-        <v>213.9110074201016</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D40" t="n">
-        <v>213.9110074201016</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>213.9110074201016</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>1130.219432619097</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>840.8022625821368</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201016</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.9110074201016</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7399,22 +7399,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7432,31 +7432,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>216.9038434870658</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C43" t="n">
-        <v>216.9038434870658</v>
+        <v>272.964375390212</v>
       </c>
       <c r="D43" t="n">
-        <v>216.9038434870658</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>437.6964226305959</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.9038434870658</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="44">
@@ -7642,7 +7642,7 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>216.9038434870658</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>216.9038434870658</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>216.9038434870658</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>216.9038434870658</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>216.9038434870658</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>1003.591713218973</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305959</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y46" t="n">
-        <v>216.9038434870658</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142009</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229598</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445223</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>360.5026862907271</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>253.7371603504743</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445223</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504513</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720747</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928303</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>29.47535963978262</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>159.0121003135244</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22564,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>130.867528847211</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.02592219651748</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22786,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>405.8497803740928</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22837,16 +22837,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>117.5062691663783</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23032,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>331.8586919009385</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>43.8415896262176</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>39.81466431549609</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.222133505507372e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>112.0187749016491</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.222133505507372e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>97.43287349936865</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>138.26833523864</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>45.28836873002447</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>257.2908078410127</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>205.199722952295</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>145.7075991864156</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.0576765518765</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>222.764027760046</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="38">
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>195.0129361518071</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>121.0596245741547</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>48.00368395686547</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>48.00368395686547</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>245.9244939404689</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1020681.761978348</v>
+        <v>729397.9021790256</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1020681.761978348</v>
+        <v>729397.9021790257</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1020681.761978348</v>
+        <v>729397.9021790256</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>966985.4952322281</v>
+        <v>966985.4952322283</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>966985.4952322282</v>
+        <v>966985.4952322283</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>966985.4952322281</v>
+        <v>966985.4952322282</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>966985.4952322282</v>
+        <v>966985.4952322281</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>966985.4952322283</v>
+        <v>966985.4952322282</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>966985.4952322283</v>
+        <v>966985.4952322282</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>966985.4952322283</v>
+        <v>966985.4952322282</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="E2" t="n">
+        <v>430131.9657114795</v>
+      </c>
+      <c r="F2" t="n">
+        <v>430131.9657114796</v>
+      </c>
+      <c r="G2" t="n">
+        <v>430131.9657114795</v>
+      </c>
+      <c r="H2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="I2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="J2" t="n">
+        <v>430131.9657114799</v>
+      </c>
+      <c r="K2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="L2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="M2" t="n">
         <v>430131.9657114797</v>
       </c>
-      <c r="F2" t="n">
+      <c r="N2" t="n">
+        <v>430131.9657114797</v>
+      </c>
+      <c r="O2" t="n">
+        <v>430131.9657114797</v>
+      </c>
+      <c r="P2" t="n">
         <v>430131.9657114798</v>
-      </c>
-      <c r="G2" t="n">
-        <v>430131.9657114797</v>
-      </c>
-      <c r="H2" t="n">
-        <v>430131.9657114797</v>
-      </c>
-      <c r="I2" t="n">
-        <v>430131.9657114797</v>
-      </c>
-      <c r="J2" t="n">
-        <v>430131.9657114798</v>
-      </c>
-      <c r="K2" t="n">
-        <v>430131.9657114799</v>
-      </c>
-      <c r="L2" t="n">
-        <v>430131.9657114797</v>
-      </c>
-      <c r="M2" t="n">
-        <v>430131.9657114798</v>
-      </c>
-      <c r="N2" t="n">
-        <v>430131.9657114798</v>
-      </c>
-      <c r="O2" t="n">
-        <v>430131.9657114798</v>
-      </c>
-      <c r="P2" t="n">
-        <v>430131.9657114797</v>
       </c>
     </row>
     <row r="3">
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925934</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.48295464189141e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338367</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174490.7773218262</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26435,19 +26435,19 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="J4" t="n">
         <v>29303.54555230234</v>
       </c>
-      <c r="I4" t="n">
-        <v>29303.54555230234</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="K4" t="n">
-        <v>29303.54555230232</v>
-      </c>
       <c r="L4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-395744.7611744241</v>
+        <v>-391310.6742754692</v>
       </c>
       <c r="C6" t="n">
-        <v>194223.1180401203</v>
+        <v>198657.2049390751</v>
       </c>
       <c r="D6" t="n">
-        <v>194223.1180401203</v>
+        <v>198657.2049390751</v>
       </c>
       <c r="E6" t="n">
-        <v>-217293.5335261567</v>
+        <v>-216416.4013924074</v>
       </c>
       <c r="F6" t="n">
-        <v>307866.5029507392</v>
+        <v>308743.6350844885</v>
       </c>
       <c r="G6" t="n">
-        <v>307866.5029507391</v>
+        <v>308743.6350844884</v>
       </c>
       <c r="H6" t="n">
-        <v>307866.5029507391</v>
+        <v>308743.6350844884</v>
       </c>
       <c r="I6" t="n">
-        <v>307866.5029507391</v>
+        <v>308743.6350844887</v>
       </c>
       <c r="J6" t="n">
-        <v>131443.2837581458</v>
+        <v>132320.4158918957</v>
       </c>
       <c r="K6" t="n">
-        <v>307866.5029507393</v>
+        <v>308743.6350844884</v>
       </c>
       <c r="L6" t="n">
-        <v>307866.5029507391</v>
+        <v>308743.6350844886</v>
       </c>
       <c r="M6" t="n">
-        <v>173065.4877169025</v>
+        <v>173942.6198506516</v>
       </c>
       <c r="N6" t="n">
-        <v>307866.5029507392</v>
+        <v>308743.6350844886</v>
       </c>
       <c r="O6" t="n">
-        <v>307866.5029507392</v>
+        <v>308743.6350844885</v>
       </c>
       <c r="P6" t="n">
-        <v>307866.502950739</v>
+        <v>308743.6350844887</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054540999</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054540999</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541005</v>
       </c>
-      <c r="K3" t="n">
-        <v>830.3824054541006</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,10 +26813,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,16 +26977,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>244.103500724808</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>247.9340427562852</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>152.7829238717193</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>333.4150374284275</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060686</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32557,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32566,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,10 +32782,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
@@ -32794,7 +32794,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
@@ -32803,10 +32803,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32882,7 +32882,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,10 +32894,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33183,16 +33183,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927188</v>
@@ -33201,19 +33201,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
         <v>0.2670576580354894</v>
@@ -33259,7 +33259,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
@@ -33268,19 +33268,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710957</v>
@@ -33289,13 +33289,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33353,19 +33353,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336902</v>
@@ -33374,7 +33374,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33420,16 +33420,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927188</v>
@@ -33438,19 +33438,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
         <v>0.2670576580354894</v>
@@ -33496,7 +33496,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
@@ -33505,19 +33505,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710957</v>
@@ -33526,13 +33526,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33590,19 +33590,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336902</v>
@@ -33611,7 +33611,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.9101789549066</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>609.76039124675</v>
+        <v>249.2577049560241</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734259</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415661</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507399</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.9101789549066</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>609.7603912467512</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.424377050466</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980126</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P18" t="n">
-        <v>460.8305752819989</v>
+        <v>525.5561835714616</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.691066710908</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415088</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560242</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081121</v>
@@ -36852,10 +36852,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,10 +36916,10 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980131</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209233</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -37001,16 +37001,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221098</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081121</v>
@@ -37089,10 +37089,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980131</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209233</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
@@ -37238,16 +37238,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37393,19 +37393,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38104,19 +38104,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>366.105515245049</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
